--- a/Bai2/demodulieu.xlsx
+++ b/Bai2/demodulieu.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUF\Music\Khoa Học Dữ Liệu\CuoiKy_KHDL\Bai2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\CuoiKy_KHDL_2024\Bai2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C18E4DC-928B-427C-9F18-F88D1DCAD173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9660" windowHeight="5496"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +90,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -366,11 +367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,25 +419,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -444,22 +445,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -470,25 +471,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -496,25 +497,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -522,25 +523,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -548,25 +549,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -574,25 +575,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -600,25 +601,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -626,25 +627,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -652,25 +653,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -678,25 +679,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -704,22 +705,22 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -730,25 +731,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -759,19 +760,19 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -782,25 +783,25 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -808,25 +809,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -834,22 +835,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -860,22 +861,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -886,25 +887,25 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -912,25 +913,25 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <v>2</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -938,25 +939,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -964,25 +965,25 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -990,22 +991,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -1016,22 +1017,22 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -1042,10 +1043,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1054,13 +1055,13 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1068,25 +1069,25 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1094,25 +1095,25 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1120,22 +1121,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -1146,25 +1147,25 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1172,25 +1173,25 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,25 +1199,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1227,22 +1228,22 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1250,25 +1251,25 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1276,25 +1277,25 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1302,25 +1303,25 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>4</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1328,25 +1329,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1354,25 +1355,25 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -1380,25 +1381,25 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>5</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1406,25 +1407,25 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1432,25 +1433,25 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1458,25 +1459,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42">
         <v>3</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1484,25 +1485,25 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -1510,25 +1511,25 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -1539,22 +1540,22 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,25 +1563,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -1591,19 +1592,19 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1614,25 +1615,25 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -1643,22 +1644,22 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -1666,25 +1667,25 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -1692,25 +1693,25 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
